--- a/xlsx/标致雪铁龙集团_intext.xlsx
+++ b/xlsx/标致雪铁龙集团_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>标致雪铁龙集团</t>
   </si>
@@ -29,13 +29,13 @@
     <t>上市公司</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_标致雪铁龙集团</t>
+    <t>政策_政策_混合动力车辆_标致雪铁龙集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9E%8D%E8%B3%87</t>
   </si>
   <si>
-    <t>融資</t>
+    <t>融资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%A2%A8%E6%B1%BD%E8%BB%8A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東風汽車集團</t>
+    <t>东风汽车集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%87</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>標緻汽車</t>
+    <t>标致汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB</t>
   </si>
   <si>
-    <t>標緻</t>
+    <t>标致</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%AF%B6</t>
   </si>
   <si>
-    <t>歐寶</t>
+    <t>欧宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -155,15 +155,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>福斯集團</t>
+    <t>福斯集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
@@ -179,25 +176,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%A2%A8%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東風集團</t>
+    <t>东风集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%B3%80%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>佛賀汽車</t>
+    <t>佛贺汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%B7%B4%E9%BB%8E%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>法國巴黎銀行</t>
+    <t>法国巴黎银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:CAC40%E6%8C%87%E6%95%B0%E6%88%90%E4%BB%BD%E5%85%AC%E5%8F%B8</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/CAC40%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>CAC40指數</t>
+    <t>CAC40指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%AB%98%E9%9B%86%E5%9B%A2</t>
@@ -233,13 +230,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%B3%BD%E6%A8%82%E7%B1%B3%E5%A1%94%E7%88%BE</t>
   </si>
   <si>
-    <t>安賽樂米塔爾</t>
+    <t>安赛乐米塔尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%9B%9B</t>
@@ -257,13 +254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%8D%B7</t>
   </si>
   <si>
-    <t>凱捷</t>
+    <t>凯捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%A8%82%E7%A6%8F</t>
   </si>
   <si>
-    <t>家樂福</t>
+    <t>家乐福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%86%9C%E4%B8%9A%E4%BF%A1%E8%B4%B7%E9%93%B6%E8%A1%8C</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E9%9B%85</t>
   </si>
   <si>
-    <t>萊雅</t>
+    <t>莱雅</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/LafargeHolcim</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%A9%E6%82%85%C2%B7%E8%BB%92%E5%B0%BC%E8%A9%A9%EF%BC%8D%E8%B7%AF%E6%98%93%C2%B7%E5%A8%81%E7%99%BB%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>酩悅·軒尼詩－路易·威登集團</t>
+    <t>酩悦·轩尼诗－路易·威登集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B6%E6%9E%97</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%9F%BA%E4%BA%9E</t>
   </si>
   <si>
-    <t>諾基亞</t>
+    <t>诺基亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Orange_(%E5%85%AC%E5%8F%B8)</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%B3%B0%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>賽峰集團</t>
+    <t>赛峰集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%88%88%E7%8F%AD</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>法國經濟</t>
+    <t>法国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>法國交通</t>
+    <t>法国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>巴黎車展</t>
+    <t>巴黎车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1571,7 +1568,7 @@
         <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
         <v>15</v>
@@ -1684,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1713,10 +1710,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1742,10 +1739,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1771,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1800,10 +1797,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1829,10 +1826,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1858,10 +1855,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -1887,10 +1884,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1916,10 +1913,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1945,10 +1942,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1974,10 +1971,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2003,10 +2000,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2032,10 +2029,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2061,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2090,10 +2087,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
         <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2119,10 +2116,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
         <v>77</v>
-      </c>
-      <c r="F43" t="s">
-        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2148,10 +2145,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2177,10 +2174,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2206,10 +2203,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2235,10 +2232,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2264,10 +2261,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
         <v>87</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2293,10 +2290,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" t="s">
-        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2322,10 +2319,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2351,10 +2348,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
         <v>93</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2380,10 +2377,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2409,10 +2406,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
         <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2438,10 +2435,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2467,10 +2464,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2496,10 +2493,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2525,10 +2522,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2554,10 +2551,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
         <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2583,10 +2580,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
         <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2612,10 +2609,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2641,10 +2638,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2670,10 +2667,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2699,10 +2696,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2728,10 +2725,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2757,10 +2754,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2786,10 +2783,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2815,10 +2812,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2844,10 +2841,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2873,10 +2870,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2902,10 +2899,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2931,10 +2928,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2960,10 +2957,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2989,10 +2986,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3018,10 +3015,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3047,10 +3044,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3076,10 +3073,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3105,10 +3102,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3134,10 +3131,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3192,10 +3189,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3221,10 +3218,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3250,10 +3247,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" t="s">
         <v>133</v>
-      </c>
-      <c r="F82" t="s">
-        <v>134</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3279,10 +3276,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3308,10 +3305,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3337,10 +3334,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3366,10 +3363,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3395,10 +3392,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3424,10 +3421,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
         <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3453,10 +3450,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3482,10 +3479,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" t="s">
         <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3511,10 +3508,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
         <v>169</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3540,10 +3537,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
         <v>171</v>
-      </c>
-      <c r="F92" t="s">
-        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
